--- a/New_OLE_2023_summary.xlsx
+++ b/New_OLE_2023_summary.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron.VanHorn\Work\GitHub\AnnRpt-FMA-OLE-Chapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0C64B0FA-BF72-497E-8AE5-D7A39E215B5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D438B5A-FFB4-4590-842D-0F4224C1C28C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="By Statement Type" sheetId="1" r:id="rId1"/>
     <sheet name="By New OLE Category" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="64">
   <si>
     <t>CONTRACTOR REQUIREMENTS</t>
   </si>
@@ -204,12 +204,21 @@
   </si>
   <si>
     <t>Old OLE Category</t>
+  </si>
+  <si>
+    <t>Confidential?</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -832,7 +841,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -893,6 +902,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -939,7 +957,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1248,11 +1277,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1260,9 +1289,10 @@
     <col min="1" max="1" width="20.1796875" style="4" customWidth="1"/>
     <col min="2" max="2" width="21.54296875" style="4" customWidth="1"/>
     <col min="3" max="3" width="14.1796875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -1272,8 +1302,11 @@
       <c r="C1" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="E1" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1283,8 +1316,11 @@
       <c r="C2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="E2" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1294,8 +1330,11 @@
       <c r="C3" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="E3" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1305,8 +1344,11 @@
       <c r="C4" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="E4" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -1316,8 +1358,11 @@
       <c r="C5" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="E5" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -1327,8 +1372,11 @@
       <c r="C6" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="E6" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -1338,8 +1386,11 @@
       <c r="C7" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="E7" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1349,8 +1400,11 @@
       <c r="C8" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E8" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -1360,8 +1414,11 @@
       <c r="C9" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="E9" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1371,8 +1428,11 @@
       <c r="C10" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="E10" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
@@ -1382,8 +1442,11 @@
       <c r="C11" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="E11" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
@@ -1393,8 +1456,11 @@
       <c r="C12" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="E12" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
@@ -1404,8 +1470,11 @@
       <c r="C13" s="9">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E13" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
@@ -1415,8 +1484,11 @@
       <c r="C14" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E14" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
@@ -1426,8 +1498,11 @@
       <c r="C15" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E15" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>17</v>
       </c>
@@ -1437,8 +1512,11 @@
       <c r="C16" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E16" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -1448,8 +1526,11 @@
       <c r="C17" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E17" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
@@ -1459,8 +1540,11 @@
       <c r="C18" s="10">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E18" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
@@ -1470,8 +1554,11 @@
       <c r="C19" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E19" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
@@ -1481,8 +1568,11 @@
       <c r="C20" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E20" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>17</v>
       </c>
@@ -1492,8 +1582,11 @@
       <c r="C21" s="10">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E21" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>17</v>
       </c>
@@ -1503,8 +1596,11 @@
       <c r="C22" s="10">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="E22" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>26</v>
       </c>
@@ -1514,8 +1610,11 @@
       <c r="C23" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="E23" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>26</v>
       </c>
@@ -1525,8 +1624,11 @@
       <c r="C24" s="11">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="E24" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>26</v>
       </c>
@@ -1536,8 +1638,11 @@
       <c r="C25" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="E25" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>26</v>
       </c>
@@ -1547,8 +1652,11 @@
       <c r="C26" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="E26" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -1558,8 +1666,11 @@
       <c r="C27" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="E27" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>26</v>
       </c>
@@ -1569,8 +1680,11 @@
       <c r="C28" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="E28" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>26</v>
       </c>
@@ -1580,8 +1694,11 @@
       <c r="C29" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="E29" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>26</v>
       </c>
@@ -1591,8 +1708,11 @@
       <c r="C30" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E30" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>35</v>
       </c>
@@ -1602,8 +1722,11 @@
       <c r="C31" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E31" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>35</v>
       </c>
@@ -1613,8 +1736,11 @@
       <c r="C32" s="12">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E32" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>35</v>
       </c>
@@ -1624,8 +1750,11 @@
       <c r="C33" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E33" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>35</v>
       </c>
@@ -1635,8 +1764,11 @@
       <c r="C34" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E34" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
         <v>40</v>
       </c>
@@ -1646,8 +1778,11 @@
       <c r="C35" s="13">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E35" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>40</v>
       </c>
@@ -1657,8 +1792,11 @@
       <c r="C36" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E36" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
         <v>40</v>
       </c>
@@ -1668,8 +1806,11 @@
       <c r="C37" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E37" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
         <v>40</v>
       </c>
@@ -1679,8 +1820,11 @@
       <c r="C38" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E38" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
         <v>40</v>
       </c>
@@ -1690,8 +1834,11 @@
       <c r="C39" s="13">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E39" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>40</v>
       </c>
@@ -1701,8 +1848,11 @@
       <c r="C40" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="E40" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
         <v>47</v>
       </c>
@@ -1712,8 +1862,11 @@
       <c r="C41" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="E41" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
         <v>47</v>
       </c>
@@ -1723,8 +1876,11 @@
       <c r="C42" s="14">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="E42" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
         <v>47</v>
       </c>
@@ -1734,8 +1890,11 @@
       <c r="C43" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="E43" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
         <v>51</v>
       </c>
@@ -1745,8 +1904,11 @@
       <c r="C44" s="15">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="E44" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
         <v>53</v>
       </c>
@@ -1756,8 +1918,11 @@
       <c r="C45" s="16">
         <v>61</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="E45" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
         <v>55</v>
       </c>
@@ -1767,17 +1932,25 @@
       <c r="C46" s="17">
         <v>19</v>
       </c>
+      <c r="E46" s="22" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/New_OLE_2023_summary.xlsx
+++ b/New_OLE_2023_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron.VanHorn\Work\GitHub\AnnRpt-FMA-OLE-Chapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D438B5A-FFB4-4590-842D-0F4224C1C28C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F873C1D6-7066-4939-A30D-C51D666E590D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,7 +355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,6 +604,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,17 +847,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -911,6 +908,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1280,659 +1289,659 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
+        <v>8</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>11</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>16</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>9</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="C9" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="E9" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="21">
+        <v>23</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="21">
+        <v>6</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="7">
+        <v>11</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="7">
+        <v>8</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="7">
+        <v>26</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="7">
+        <v>11</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="8">
+        <v>3</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="8">
+        <v>9</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="8">
         <v>4</v>
       </c>
-      <c r="C4" s="7">
+      <c r="E25" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="8">
+        <v>7</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="8">
+        <v>2</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="9">
+        <v>9</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="9">
+        <v>35</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="10">
+        <v>14</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="10">
         <v>6</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="E36" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="10">
+        <v>2</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="10">
+        <v>9</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="10">
+        <v>24</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="E40" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="11">
+        <v>1</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="11">
+        <v>11</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="11">
+        <v>3</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="12">
+        <v>14</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="13">
+        <v>61</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="14">
         <v>18</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7">
-        <v>18</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7">
-        <v>9</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="8">
-        <v>3</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8">
-        <v>6</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="8">
-        <v>6</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="8">
-        <v>6</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="9">
-        <v>23</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="9">
-        <v>6</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="10">
-        <v>2</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="10">
-        <v>3</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="10">
-        <v>1</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="10">
-        <v>11</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="10">
-        <v>3</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="10">
-        <v>8</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="10">
-        <v>26</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="10">
-        <v>11</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="11">
-        <v>3</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="11">
-        <v>9</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="11">
-        <v>4</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="11">
-        <v>1</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="11">
-        <v>7</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="11">
-        <v>2</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="11">
-        <v>1</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="11">
-        <v>1</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="12">
-        <v>9</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="12">
-        <v>35</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="12">
-        <v>1</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="12">
-        <v>1</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="13">
-        <v>16</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="13">
-        <v>6</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="13">
-        <v>2</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="13">
-        <v>9</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="13">
-        <v>27</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="13">
-        <v>3</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="14">
-        <v>1</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="14">
-        <v>11</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="14">
-        <v>3</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A44" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="15">
-        <v>14</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="16">
-        <v>61</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="17">
-        <v>19</v>
-      </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="19" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1951,129 +1960,129 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="2">
         <f>SUM('By Statement Type'!C2:C3)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <f>SUM('By Statement Type'!C4:C7)</f>
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <f>SUM('By Statement Type'!C8:C12)</f>
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <f>SUM('By Statement Type'!C13:C14)</f>
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <f>SUM('By Statement Type'!C15:C22)</f>
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <f>SUM('By Statement Type'!C23:C30)</f>
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <f>SUM('By Statement Type'!C31:C34)</f>
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <f>SUM('By Statement Type'!C35:C40)</f>
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <f>SUM('By Statement Type'!C41:C43)</f>
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="12">
         <f>SUM('By Statement Type'!C44)</f>
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="13">
         <f>SUM('By Statement Type'!C45)</f>
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="14">
         <f>SUM('By Statement Type'!C46)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
